--- a/public/data/yield_loss/yield_table_kenya.xlsx
+++ b/public/data/yield_loss/yield_table_kenya.xlsx
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1281.81</v>
+        <v>1276.65</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>144.99</v>
+        <v>142.82</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>137.75</v>
       </c>
       <c r="U13" t="n">
-        <v>9.38</v>
+        <v>9.37</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>3264.72</v>
+        <v>3263.79</v>
       </c>
       <c r="G26" t="n">
         <v>2.04</v>
@@ -4104,7 +4104,7 @@
         <v>34.83</v>
       </c>
       <c r="L26" t="n">
-        <v>131.39</v>
+        <v>131.36</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2144.47</v>
+        <v>2143.55</v>
       </c>
       <c r="G29" t="n">
         <v>1.56</v>
@@ -4344,7 +4344,7 @@
         <v>18.17</v>
       </c>
       <c r="L29" t="n">
-        <v>73.88</v>
+        <v>73.84</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1731.8</v>
+        <v>1644.72</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -4806,7 +4806,7 @@
         <v>5.47</v>
       </c>
       <c r="F35" t="n">
-        <v>2810.41</v>
+        <v>2785.52</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -5701,10 +5701,10 @@
         <v>0.47</v>
       </c>
       <c r="K46" t="n">
-        <v>8.64</v>
+        <v>8.61</v>
       </c>
       <c r="L46" t="n">
-        <v>317.37</v>
+        <v>316.3</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -5781,13 +5781,13 @@
         <v>15.42</v>
       </c>
       <c r="K47" t="n">
-        <v>36.38</v>
+        <v>36.28</v>
       </c>
       <c r="L47" t="n">
-        <v>385.08</v>
+        <v>381.14</v>
       </c>
       <c r="M47" t="n">
-        <v>7.01</v>
+        <v>6.96</v>
       </c>
       <c r="N47" t="n">
         <v>2985.26</v>
@@ -5811,7 +5811,7 @@
         <v>372.56</v>
       </c>
       <c r="U47" t="n">
-        <v>155.85</v>
+        <v>155.29</v>
       </c>
       <c r="V47" t="n">
         <v>74.34</v>
@@ -5941,13 +5941,13 @@
         <v>33.19</v>
       </c>
       <c r="K49" t="n">
-        <v>20.12</v>
+        <v>19.83</v>
       </c>
       <c r="L49" t="n">
-        <v>692.97</v>
+        <v>674.99</v>
       </c>
       <c r="M49" t="n">
-        <v>7.37</v>
+        <v>7.17</v>
       </c>
       <c r="N49" t="n">
         <v>4685.08</v>
@@ -5971,7 +5971,7 @@
         <v>622.48</v>
       </c>
       <c r="U49" t="n">
-        <v>76.37</v>
+        <v>75.3</v>
       </c>
       <c r="V49" t="n">
         <v>285.67</v>
@@ -6101,10 +6101,10 @@
         <v>0.9</v>
       </c>
       <c r="K51" t="n">
-        <v>27.14</v>
+        <v>27.09</v>
       </c>
       <c r="L51" t="n">
-        <v>631.13</v>
+        <v>628.98</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>1.04</v>
       </c>
       <c r="K52" t="n">
-        <v>27.79</v>
+        <v>27.77</v>
       </c>
       <c r="L52" t="n">
-        <v>669.66</v>
+        <v>668.59</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -6966,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>4674.37</v>
+        <v>4445.45</v>
       </c>
       <c r="G62" t="n">
         <v>57.82</v>
@@ -6981,10 +6981,10 @@
         <v>0.87</v>
       </c>
       <c r="K62" t="n">
-        <v>67.15</v>
+        <v>64.61</v>
       </c>
       <c r="L62" t="n">
-        <v>292.73</v>
+        <v>269.3</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -7011,7 +7011,7 @@
         <v>495.51</v>
       </c>
       <c r="U62" t="n">
-        <v>18.32</v>
+        <v>17.83</v>
       </c>
       <c r="V62" t="n">
         <v>1670.53</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>8215.47</v>
+        <v>7213.01</v>
       </c>
       <c r="G63" t="n">
         <v>84.06</v>
@@ -7061,10 +7061,10 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>111.29</v>
+        <v>103.97</v>
       </c>
       <c r="L63" t="n">
-        <v>292.01</v>
+        <v>257.16</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>503.08</v>
       </c>
       <c r="U63" t="n">
-        <v>30.42</v>
+        <v>28.68</v>
       </c>
       <c r="V63" t="n">
         <v>4194.55</v>
@@ -7126,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1365.44</v>
+        <v>1345.44</v>
       </c>
       <c r="G64" t="n">
         <v>2.32</v>
@@ -7141,10 +7141,10 @@
         <v>0.02</v>
       </c>
       <c r="K64" t="n">
-        <v>11.54</v>
+        <v>11.39</v>
       </c>
       <c r="L64" t="n">
-        <v>52.1</v>
+        <v>51.33</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -7171,7 +7171,7 @@
         <v>83.64</v>
       </c>
       <c r="U64" t="n">
-        <v>4.02</v>
+        <v>3.96</v>
       </c>
       <c r="V64" t="n">
         <v>308.41</v>
@@ -7286,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>5156.31</v>
+        <v>4898.36</v>
       </c>
       <c r="G66" t="n">
         <v>31.51</v>
@@ -7301,10 +7301,10 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>66.19</v>
+        <v>64.62</v>
       </c>
       <c r="L66" t="n">
-        <v>205.69</v>
+        <v>196.9</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>309.55</v>
       </c>
       <c r="U66" t="n">
-        <v>24.55</v>
+        <v>24</v>
       </c>
       <c r="V66" t="n">
         <v>1168.87</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1972.97</v>
+        <v>1972.04</v>
       </c>
       <c r="G68" t="n">
         <v>1.77</v>
@@ -7464,7 +7464,7 @@
         <v>15.95</v>
       </c>
       <c r="L68" t="n">
-        <v>67.29</v>
+        <v>67.26</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>2019.52</v>
+        <v>2001.88</v>
       </c>
       <c r="G70" t="n">
         <v>2.06</v>
@@ -7621,10 +7621,10 @@
         <v>0.05</v>
       </c>
       <c r="K70" t="n">
-        <v>22.15</v>
+        <v>21.98</v>
       </c>
       <c r="L70" t="n">
-        <v>95.27</v>
+        <v>94.37</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -7651,7 +7651,7 @@
         <v>157.93</v>
       </c>
       <c r="U70" t="n">
-        <v>7.59</v>
+        <v>7.53</v>
       </c>
       <c r="V70" t="n">
         <v>255.59</v>
@@ -7766,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>4361.17</v>
+        <v>4123.14</v>
       </c>
       <c r="G72" t="n">
         <v>24.47</v>
@@ -7781,10 +7781,10 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>55.28</v>
+        <v>53.85</v>
       </c>
       <c r="L72" t="n">
-        <v>138.32</v>
+        <v>130.51</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -7811,7 +7811,7 @@
         <v>245.14</v>
       </c>
       <c r="U72" t="n">
-        <v>18.49</v>
+        <v>17.99</v>
       </c>
       <c r="V72" t="n">
         <v>936.05</v>
@@ -8261,10 +8261,10 @@
         <v>0.03</v>
       </c>
       <c r="K78" t="n">
-        <v>26.95</v>
+        <v>26.94</v>
       </c>
       <c r="L78" t="n">
-        <v>38.76</v>
+        <v>38.7</v>
       </c>
       <c r="M78" t="n">
         <v>5.25</v>
@@ -8291,7 +8291,7 @@
         <v>34.85</v>
       </c>
       <c r="U78" t="n">
-        <v>147.13</v>
+        <v>147.1</v>
       </c>
       <c r="V78" t="n">
         <v>15.89</v>
@@ -10501,13 +10501,13 @@
         <v>3.28</v>
       </c>
       <c r="K106" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="L106" t="n">
-        <v>73.18</v>
+        <v>71.35</v>
       </c>
       <c r="M106" t="n">
-        <v>4.42</v>
+        <v>4.3</v>
       </c>
       <c r="N106" t="n">
         <v>1632.41</v>
@@ -10531,7 +10531,7 @@
         <v>71.62</v>
       </c>
       <c r="U106" t="n">
-        <v>34.35</v>
+        <v>33.82</v>
       </c>
       <c r="V106" t="n">
         <v>106.79</v>
@@ -10581,13 +10581,13 @@
         <v>3.28</v>
       </c>
       <c r="K107" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="L107" t="n">
-        <v>72.42</v>
+        <v>70.59</v>
       </c>
       <c r="M107" t="n">
-        <v>5.16</v>
+        <v>5.04</v>
       </c>
       <c r="N107" t="n">
         <v>1539.99</v>
@@ -10611,7 +10611,7 @@
         <v>70.74</v>
       </c>
       <c r="U107" t="n">
-        <v>34.6</v>
+        <v>34.08</v>
       </c>
       <c r="V107" t="n">
         <v>107.05</v>
@@ -10744,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>20.28</v>
+        <v>20.06</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -11046,7 +11046,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>804.88</v>
+        <v>800.24</v>
       </c>
       <c r="G113" t="n">
         <v>6.72</v>
@@ -11061,10 +11061,10 @@
         <v>0.65</v>
       </c>
       <c r="K113" t="n">
-        <v>21.67</v>
+        <v>21.54</v>
       </c>
       <c r="L113" t="n">
-        <v>92.84</v>
+        <v>92.2</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
@@ -11091,7 +11091,7 @@
         <v>128.71</v>
       </c>
       <c r="U113" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="V113" t="n">
         <v>70.2</v>
@@ -12806,7 +12806,7 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>945.77</v>
+        <v>965.48</v>
       </c>
       <c r="G135" t="n">
         <v>3.57</v>
@@ -12821,19 +12821,19 @@
         <v>0.12</v>
       </c>
       <c r="K135" t="n">
-        <v>115.67</v>
+        <v>120.42</v>
       </c>
       <c r="L135" t="n">
         <v>0</v>
       </c>
       <c r="M135" t="n">
-        <v>64.63</v>
+        <v>65.68</v>
       </c>
       <c r="N135" t="n">
         <v>406.13</v>
       </c>
       <c r="O135" t="n">
-        <v>814.53</v>
+        <v>832.18</v>
       </c>
       <c r="P135" t="n">
         <v>0.99</v>
@@ -12880,13 +12880,13 @@
         <v>236</v>
       </c>
       <c r="D136" t="n">
-        <v>4.16</v>
+        <v>4.22</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>3386.54</v>
+        <v>3587.05</v>
       </c>
       <c r="G136" t="n">
         <v>3.98</v>
@@ -12901,25 +12901,25 @@
         <v>0.95</v>
       </c>
       <c r="K136" t="n">
-        <v>256.47</v>
+        <v>285.14</v>
       </c>
       <c r="L136" t="n">
         <v>0</v>
       </c>
       <c r="M136" t="n">
-        <v>118.24</v>
+        <v>143.17</v>
       </c>
       <c r="N136" t="n">
-        <v>1332.8</v>
+        <v>1404.26</v>
       </c>
       <c r="O136" t="n">
-        <v>1493.6</v>
+        <v>1642.16</v>
       </c>
       <c r="P136" t="n">
         <v>2.82</v>
       </c>
       <c r="Q136" t="n">
-        <v>10.05</v>
+        <v>10.63</v>
       </c>
       <c r="R136" t="n">
         <v>0</v>
@@ -12928,7 +12928,7 @@
         <v>0</v>
       </c>
       <c r="T136" t="n">
-        <v>51.24</v>
+        <v>54.28</v>
       </c>
       <c r="U136" t="n">
         <v>0</v>
@@ -12937,7 +12937,7 @@
         <v>0</v>
       </c>
       <c r="W136" t="n">
-        <v>377.75</v>
+        <v>412.85</v>
       </c>
       <c r="X136" t="n">
         <v>0</v>
@@ -12966,7 +12966,7 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>4697.02</v>
+        <v>4693.89</v>
       </c>
       <c r="G137" t="n">
         <v>0.4</v>
@@ -12981,19 +12981,19 @@
         <v>1.34</v>
       </c>
       <c r="K137" t="n">
-        <v>310.73</v>
+        <v>310.71</v>
       </c>
       <c r="L137" t="n">
         <v>0</v>
       </c>
       <c r="M137" t="n">
-        <v>215.1</v>
+        <v>214.92</v>
       </c>
       <c r="N137" t="n">
         <v>2184.69</v>
       </c>
       <c r="O137" t="n">
-        <v>852.87</v>
+        <v>852.35</v>
       </c>
       <c r="P137" t="n">
         <v>2.41</v>
@@ -13286,7 +13286,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>10621.36</v>
+        <v>10641.07</v>
       </c>
       <c r="G141" t="n">
         <v>3.62</v>
@@ -13301,19 +13301,19 @@
         <v>4.91</v>
       </c>
       <c r="K141" t="n">
-        <v>979.48</v>
+        <v>984.23</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
       </c>
       <c r="M141" t="n">
-        <v>68.89</v>
+        <v>69.94</v>
       </c>
       <c r="N141" t="n">
         <v>8027.49</v>
       </c>
       <c r="O141" t="n">
-        <v>6998.36</v>
+        <v>7016.01</v>
       </c>
       <c r="P141" t="n">
         <v>62.89</v>
@@ -13526,7 +13526,7 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>973.7</v>
+        <v>973.24</v>
       </c>
       <c r="G144" t="n">
         <v>0.04</v>
@@ -13541,19 +13541,19 @@
         <v>1.65</v>
       </c>
       <c r="K144" t="n">
-        <v>172.76</v>
+        <v>172.75</v>
       </c>
       <c r="L144" t="n">
         <v>0</v>
       </c>
       <c r="M144" t="n">
-        <v>95.94</v>
+        <v>95.9</v>
       </c>
       <c r="N144" t="n">
         <v>470.53</v>
       </c>
       <c r="O144" t="n">
-        <v>438.37</v>
+        <v>438.19</v>
       </c>
       <c r="P144" t="n">
         <v>1.84</v>
@@ -13766,7 +13766,7 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>1798.59</v>
+        <v>1797.98</v>
       </c>
       <c r="G147" t="n">
         <v>0.65</v>
@@ -13781,19 +13781,19 @@
         <v>7.03</v>
       </c>
       <c r="K147" t="n">
-        <v>320.91</v>
+        <v>322.91</v>
       </c>
       <c r="L147" t="n">
         <v>0.03</v>
       </c>
       <c r="M147" t="n">
-        <v>109.85</v>
+        <v>109.82</v>
       </c>
       <c r="N147" t="n">
         <v>1113.29</v>
       </c>
       <c r="O147" t="n">
-        <v>746.13</v>
+        <v>745.97</v>
       </c>
       <c r="P147" t="n">
         <v>5.01</v>
@@ -13846,7 +13846,7 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>1599.58</v>
+        <v>1597.77</v>
       </c>
       <c r="G148" t="n">
         <v>0.13</v>
@@ -13873,7 +13873,7 @@
         <v>735.7</v>
       </c>
       <c r="O148" t="n">
-        <v>1039.34</v>
+        <v>1038.06</v>
       </c>
       <c r="P148" t="n">
         <v>8.44</v>
@@ -13926,7 +13926,7 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>3137.98</v>
+        <v>3137.63</v>
       </c>
       <c r="G149" t="n">
         <v>0.04</v>
@@ -13947,13 +13947,13 @@
         <v>0</v>
       </c>
       <c r="M149" t="n">
-        <v>194.6</v>
+        <v>194.58</v>
       </c>
       <c r="N149" t="n">
         <v>2386.79</v>
       </c>
       <c r="O149" t="n">
-        <v>1412.11</v>
+        <v>1411.95</v>
       </c>
       <c r="P149" t="n">
         <v>19.28</v>
@@ -15701,10 +15701,10 @@
         <v>0.54</v>
       </c>
       <c r="K171" t="n">
-        <v>35.88</v>
+        <v>35.86</v>
       </c>
       <c r="L171" t="n">
-        <v>248.33</v>
+        <v>247.22</v>
       </c>
       <c r="M171" t="n">
         <v>6.51</v>
@@ -16024,7 +16024,7 @@
         <v>23.06</v>
       </c>
       <c r="L175" t="n">
-        <v>150.63</v>
+        <v>150.59</v>
       </c>
       <c r="M175" t="n">
         <v>4.5</v>
@@ -19606,7 +19606,7 @@
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>1056.66</v>
+        <v>1056.23</v>
       </c>
       <c r="G220" t="n">
         <v>0.49</v>
@@ -20566,7 +20566,7 @@
         <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>146.94</v>
+        <v>141.95</v>
       </c>
       <c r="G232" t="n">
         <v>0</v>
@@ -20584,7 +20584,7 @@
         <v>0</v>
       </c>
       <c r="L232" t="n">
-        <v>116.48</v>
+        <v>114.32</v>
       </c>
       <c r="M232" t="n">
         <v>0</v>
@@ -20611,7 +20611,7 @@
         <v>93.31</v>
       </c>
       <c r="U232" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="V232" t="n">
         <v>0</v>
@@ -20664,7 +20664,7 @@
         <v>0</v>
       </c>
       <c r="L233" t="n">
-        <v>82.68</v>
+        <v>82.23</v>
       </c>
       <c r="M233" t="n">
         <v>0.22</v>
@@ -20741,13 +20741,13 @@
         <v>1.14</v>
       </c>
       <c r="K234" t="n">
-        <v>42.05</v>
+        <v>42</v>
       </c>
       <c r="L234" t="n">
-        <v>107.52</v>
+        <v>107.19</v>
       </c>
       <c r="M234" t="n">
-        <v>8.12</v>
+        <v>8.09</v>
       </c>
       <c r="N234" t="n">
         <v>3025.18</v>
@@ -20771,7 +20771,7 @@
         <v>96.27</v>
       </c>
       <c r="U234" t="n">
-        <v>210.96</v>
+        <v>210.68</v>
       </c>
       <c r="V234" t="n">
         <v>14.94</v>
@@ -20821,13 +20821,13 @@
         <v>1.03</v>
       </c>
       <c r="K235" t="n">
-        <v>10.29</v>
+        <v>10.24</v>
       </c>
       <c r="L235" t="n">
-        <v>88.16</v>
+        <v>87.85</v>
       </c>
       <c r="M235" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="N235" t="n">
         <v>2883.6</v>
@@ -20851,7 +20851,7 @@
         <v>65.3</v>
       </c>
       <c r="U235" t="n">
-        <v>53.89</v>
+        <v>53.65</v>
       </c>
       <c r="V235" t="n">
         <v>2.4</v>
@@ -22021,10 +22021,10 @@
         <v>0.17</v>
       </c>
       <c r="K250" t="n">
-        <v>5.39</v>
+        <v>5.37</v>
       </c>
       <c r="L250" t="n">
-        <v>52.98</v>
+        <v>52.81</v>
       </c>
       <c r="M250" t="n">
         <v>0</v>
@@ -22181,10 +22181,10 @@
         <v>0.59</v>
       </c>
       <c r="K252" t="n">
-        <v>18.09</v>
+        <v>18.07</v>
       </c>
       <c r="L252" t="n">
-        <v>151.59</v>
+        <v>151.39</v>
       </c>
       <c r="M252" t="n">
         <v>0</v>
@@ -22406,7 +22406,7 @@
         <v>0</v>
       </c>
       <c r="F255" t="n">
-        <v>1880.1</v>
+        <v>1680.69</v>
       </c>
       <c r="G255" t="n">
         <v>95.69</v>
@@ -22421,10 +22421,10 @@
         <v>1.65</v>
       </c>
       <c r="K255" t="n">
-        <v>53.94</v>
+        <v>52.12</v>
       </c>
       <c r="L255" t="n">
-        <v>286.87</v>
+        <v>266.48</v>
       </c>
       <c r="M255" t="n">
         <v>0</v>
@@ -22451,7 +22451,7 @@
         <v>593.29</v>
       </c>
       <c r="U255" t="n">
-        <v>7.82</v>
+        <v>7.43</v>
       </c>
       <c r="V255" t="n">
         <v>1374.07</v>
@@ -22646,7 +22646,7 @@
         <v>0</v>
       </c>
       <c r="F258" t="n">
-        <v>15.82</v>
+        <v>16.82</v>
       </c>
       <c r="G258" t="n">
         <v>0.83</v>
@@ -22661,19 +22661,19 @@
         <v>0</v>
       </c>
       <c r="K258" t="n">
-        <v>2.06</v>
+        <v>2.48</v>
       </c>
       <c r="L258" t="n">
         <v>0</v>
       </c>
       <c r="M258" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="N258" t="n">
         <v>50.21</v>
       </c>
       <c r="O258" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="P258" t="n">
         <v>0.07</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="F259" t="n">
-        <v>52.76</v>
+        <v>53.76</v>
       </c>
       <c r="G259" t="n">
         <v>0.83</v>
@@ -22741,19 +22741,19 @@
         <v>0</v>
       </c>
       <c r="K259" t="n">
-        <v>5.81</v>
+        <v>6.24</v>
       </c>
       <c r="L259" t="n">
         <v>0</v>
       </c>
       <c r="M259" t="n">
-        <v>14.36</v>
+        <v>14.48</v>
       </c>
       <c r="N259" t="n">
         <v>94.47</v>
       </c>
       <c r="O259" t="n">
-        <v>4.97</v>
+        <v>5.06</v>
       </c>
       <c r="P259" t="n">
         <v>0.1</v>
@@ -24646,7 +24646,7 @@
         <v>3.18</v>
       </c>
       <c r="F283" t="n">
-        <v>148.76</v>
+        <v>148.64</v>
       </c>
       <c r="G283" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="F286" t="n">
-        <v>757.92</v>
+        <v>753.27</v>
       </c>
       <c r="G286" t="n">
         <v>2.8</v>
@@ -24904,7 +24904,7 @@
         <v>8.5</v>
       </c>
       <c r="L286" t="n">
-        <v>34.77</v>
+        <v>34.55</v>
       </c>
       <c r="M286" t="n">
         <v>0</v>
@@ -24966,7 +24966,7 @@
         <v>0</v>
       </c>
       <c r="F287" t="n">
-        <v>2742.14</v>
+        <v>2675.59</v>
       </c>
       <c r="G287" t="n">
         <v>20.26</v>
@@ -24981,13 +24981,13 @@
         <v>0.55</v>
       </c>
       <c r="K287" t="n">
-        <v>37.87</v>
+        <v>37.55</v>
       </c>
       <c r="L287" t="n">
-        <v>110.14</v>
+        <v>108.99</v>
       </c>
       <c r="M287" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="N287" t="n">
         <v>3161.56</v>
@@ -25011,7 +25011,7 @@
         <v>198.64</v>
       </c>
       <c r="U287" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="V287" t="n">
         <v>630.62</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="F288" t="n">
-        <v>372.59</v>
+        <v>367.96</v>
       </c>
       <c r="G288" t="n">
         <v>6.72</v>
@@ -25061,10 +25061,10 @@
         <v>0.46</v>
       </c>
       <c r="K288" t="n">
-        <v>11.94</v>
+        <v>11.81</v>
       </c>
       <c r="L288" t="n">
-        <v>51.06</v>
+        <v>50.43</v>
       </c>
       <c r="M288" t="n">
         <v>0</v>
@@ -25091,7 +25091,7 @@
         <v>75.17</v>
       </c>
       <c r="U288" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="V288" t="n">
         <v>70.2</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="F289" t="n">
-        <v>2211.95</v>
+        <v>2177.94</v>
       </c>
       <c r="G289" t="n">
         <v>13.02</v>
@@ -25141,10 +25141,10 @@
         <v>0</v>
       </c>
       <c r="K289" t="n">
-        <v>26.87</v>
+        <v>26.68</v>
       </c>
       <c r="L289" t="n">
-        <v>76.88</v>
+        <v>75.65</v>
       </c>
       <c r="M289" t="n">
         <v>0</v>
@@ -25926,7 +25926,7 @@
         <v>0</v>
       </c>
       <c r="F299" t="n">
-        <v>1741.11</v>
+        <v>1638.89</v>
       </c>
       <c r="G299" t="n">
         <v>0</v>
@@ -25944,7 +25944,7 @@
         <v>0</v>
       </c>
       <c r="L299" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="M299" t="n">
         <v>0</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="F300" t="n">
-        <v>53.46</v>
+        <v>53.45</v>
       </c>
       <c r="G300" t="n">
         <v>0</v>
